--- a/data/trans_bre/P11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>32,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 10,32</t>
+          <t>-3,23; 13,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 9,17</t>
+          <t>-2,25; 13,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 8,31</t>
+          <t>-0,09; 15,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 70,64</t>
+          <t>-5,86; 11,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 63,29</t>
+          <t>-16,8; 110,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 56,0</t>
+          <t>-10,45; 119,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 149,71</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 110,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,96%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 12,8</t>
+          <t>-7,37; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 13,0</t>
+          <t>-6,82; 13,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 11,5</t>
+          <t>-6,62; 11,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 108,7</t>
+          <t>-12,03; 6,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 83,0</t>
+          <t>-38,68; 142,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 81,74</t>
+          <t>-36,27; 141,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-34,35; 120,07</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-53,5; 59,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-16,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>22,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,17%</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>126,95%</t>
+          <t>-63,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>168,55%</t>
+          <t>368,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>394,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>208,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 8,85</t>
+          <t>-59,25; 9,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 20,86</t>
+          <t>-0,79; 27,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 26,11</t>
+          <t>4,44; 38,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-90,52; 161,71</t>
+          <t>-3,92; 29,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 1058,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 903,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-64,57; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,04</t>
+          <t>-6,94; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 9,2</t>
+          <t>0,15; 11,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,94</t>
+          <t>0,38; 12,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 64,84</t>
+          <t>-5,16; 7,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 60,22</t>
+          <t>-30,97; 63,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 62,81</t>
+          <t>-2,75; 104,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 120,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; 66,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,84%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>46,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.016451793158743</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.401419498974258</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.177071739915377</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.32185255098265</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2258376344153253</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3229581614756164</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4066718505297343</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1477591243888648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 13,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 13,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 15,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 11,91</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 110,48</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 119,85</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 149,71</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-30,32; 110,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.935669421983015</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.104302498512808</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.092200162439653</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.929335634003797</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1982200128583337</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1020604053414123</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.07314830734114769</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3080227706895624</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.52231529291085</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.10143463318673</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.79770209174013</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.48106891983513</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.090145907354142</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.203663971018939</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.418253789789713</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.096638830435283</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>28,74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>20,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 11,36</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 13,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 11,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,03; 6,4</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-38,68; 142,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-36,27; 141,26</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-34,35; 120,07</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-53,5; 59,17</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.616801381725255</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.691577950779081</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.546158591919903</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.055010681295133</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.09353240041475459</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1776901669612622</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1900302577288111</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.128449695524645</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-16,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-63,11%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>368,79%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>394,74%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>208,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.13518828654557</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.857574238956955</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.721704934315399</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.0358279998038</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5314561491971884</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4441494104084518</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3751508678018436</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5189638830725682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-59,25; 9,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 27,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 38,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 29,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-64,57; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.551897384776064</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.43832689762895</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.56437484755354</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.792733950086645</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.005942389931981</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.169748284578316</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.198340296451857</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.6623548191192896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>40,02%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>51,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-17.84598071118061</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.31774514499033</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21.82559582329081</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.63285478844159</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6660218970405339</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.181391918980243</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3.930530793516938</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.430407382625455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 7,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 11,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 12,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 7,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-30,97; 63,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 104,69</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 120,96</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,66; 66,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-59.82824567044002</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.1853393648937</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.46217449498938</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.013555665819171</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2052244101562275</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7113323195049888</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.665027025969191</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.10256412862048</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>38.079102438203</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>26.63270665901427</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.4432409930306691</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.990630478243801</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.380632784032267</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.580716809581603</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.02395817857226566</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3398434807723288</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4763971206320133</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1064003862912625</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.96805841215628</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7192350603354244</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1209607824097423</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.722777194634334</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3553173078435123</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.06616282079976436</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02231062454743125</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2560313689783346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.579421104534909</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.9219878338312</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.07103356962366</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.709431107620284</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4968293887722964</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9543229360693681</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.116260863928293</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6708064249140938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
